--- a/Mqtt_Scripts/pmbus_excel.xlsx
+++ b/Mqtt_Scripts/pmbus_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-125" yWindow="-125" windowWidth="29035" windowHeight="15715"/>
+    <workbookView xWindow="-125" yWindow="-125" windowWidth="29035" windowHeight="15715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="232">
   <si>
     <t>VOUT</t>
   </si>
@@ -578,10 +578,6 @@
     <t>Add Standby</t>
   </si>
   <si>
-    <t>Sent the command " [03 58 00 01]"String 
-to Topic " XXX/pmbus/set"</t>
-  </si>
-  <si>
     <t>0x07</t>
   </si>
   <si>
@@ -700,6 +696,33 @@
   </si>
   <si>
     <t>E16</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>MqttBroker Set</t>
+  </si>
+  <si>
+    <t>00-Default 01-from EEPROM</t>
+  </si>
+  <si>
+    <t>MQTT-Sub "xxx/pmbus/info"</t>
+  </si>
+  <si>
+    <t>MQTT-Sub "xxx/pmbus/monitor"</t>
+  </si>
+  <si>
+    <t>MQTT-Sub "xxx/pmbus/standby"</t>
+  </si>
+  <si>
+    <t>MQTT-Sub "xxx/pmbus/pec"</t>
+  </si>
+  <si>
+    <t>MQTT-Sub "xxx/pmbus/enable"</t>
+  </si>
+  <si>
+    <t>Sent the command msg " [03 58 00 01]"String to Topic " XXX/pmbus/set"</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,6 +1344,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2088,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="21.65" customHeight="1">
@@ -2173,7 +2202,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>33</v>
@@ -2229,7 +2258,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="21.65" customHeight="1">
@@ -2401,7 +2430,7 @@
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
@@ -2455,13 +2484,13 @@
         <v>110</v>
       </c>
       <c r="F10" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>198</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>199</v>
       </c>
       <c r="K10" s="4">
         <v>7</v>
@@ -2491,10 +2520,10 @@
         <v>101</v>
       </c>
       <c r="G11" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="57" t="s">
         <v>202</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>203</v>
       </c>
       <c r="I11" s="57"/>
       <c r="K11" s="5"/>
@@ -2525,7 +2554,7 @@
     </row>
     <row r="13" spans="1:16" ht="20.8">
       <c r="A13" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="15"/>
       <c r="K13" s="6" t="s">
@@ -2544,7 +2573,7 @@
     </row>
     <row r="14" spans="1:16" ht="18">
       <c r="A14" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K14" s="22">
         <v>0</v>
@@ -2562,7 +2591,7 @@
     </row>
     <row r="15" spans="1:16" ht="18">
       <c r="A15" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" s="22">
         <v>1</v>
@@ -2580,7 +2609,7 @@
     </row>
     <row r="16" spans="1:16" ht="18">
       <c r="A16" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K16" s="22">
         <v>2</v>
@@ -2598,7 +2627,7 @@
     </row>
     <row r="17" spans="1:15" ht="18">
       <c r="A17" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K17" s="22">
         <v>3</v>
@@ -2616,7 +2645,7 @@
     </row>
     <row r="18" spans="1:15" ht="18">
       <c r="A18" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="35"/>
       <c r="K18" s="22">
@@ -2635,7 +2664,7 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K19" s="22">
         <v>5</v>
@@ -2653,7 +2682,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K20" s="22">
         <v>6</v>
@@ -2671,7 +2700,7 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K21" s="22">
         <v>7</v>
@@ -2689,7 +2718,7 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="9" t="str">
         <f>I5</f>
@@ -2709,7 +2738,7 @@
     </row>
     <row r="23" spans="1:15" ht="18">
       <c r="A23" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>33</v>
@@ -2727,7 +2756,7 @@
     </row>
     <row r="24" spans="1:15" ht="18">
       <c r="A24" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -2745,7 +2774,7 @@
     </row>
     <row r="25" spans="1:15" ht="18">
       <c r="A25" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -2763,7 +2792,7 @@
     </row>
     <row r="26" spans="1:15" ht="18">
       <c r="A26" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K26" s="4">
         <v>2</v>
@@ -2781,7 +2810,7 @@
     </row>
     <row r="27" spans="1:15" ht="18">
       <c r="A27" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K27" s="4">
         <v>3</v>
@@ -2799,7 +2828,7 @@
     </row>
     <row r="28" spans="1:15" ht="18">
       <c r="A28" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" s="4">
         <v>4</v>
@@ -2817,7 +2846,7 @@
     </row>
     <row r="29" spans="1:15" ht="18">
       <c r="A29" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K29" s="4">
         <v>5</v>
@@ -3017,32 +3046,32 @@
     </row>
     <row r="200" spans="1:1" ht="18">
       <c r="A200" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18">
       <c r="A201" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18">
       <c r="A202" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18">
       <c r="A203" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18">
       <c r="A204" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18">
       <c r="A205" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18">
@@ -3808,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55"/>
@@ -4204,7 +4233,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.95">
+    <row r="18" spans="1:16" ht="15.95">
       <c r="A18" s="51" t="s">
         <v>112</v>
       </c>
@@ -4227,7 +4256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.95">
+    <row r="19" spans="1:16" ht="15.95">
       <c r="A19" s="39"/>
       <c r="B19" s="40" t="s">
         <v>163</v>
@@ -4246,7 +4275,7 @@
       </c>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:12" ht="15.95">
+    <row r="20" spans="1:16" ht="15.95">
       <c r="A20" s="39"/>
       <c r="B20" s="40" t="s">
         <v>163</v>
@@ -4267,7 +4296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.95">
+    <row r="21" spans="1:16" ht="15.95">
       <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>163</v>
@@ -4287,8 +4316,11 @@
       <c r="G21" s="40" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.95">
+      <c r="I21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.95">
       <c r="A22" s="43"/>
       <c r="B22" s="40" t="s">
         <v>163</v>
@@ -4305,9 +4337,11 @@
       <c r="F22" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95">
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.95">
       <c r="A23" s="43"/>
       <c r="B23" s="40" t="s">
         <v>163</v>
@@ -4326,7 +4360,7 @@
       </c>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:12" ht="15.95">
+    <row r="24" spans="1:16" ht="15.95">
       <c r="A24" s="43"/>
       <c r="B24" s="40" t="s">
         <v>163</v>
@@ -4343,9 +4377,11 @@
       <c r="F24" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95">
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.95">
       <c r="A25" s="43"/>
       <c r="B25" s="40" t="s">
         <v>163</v>
@@ -4362,24 +4398,28 @@
       <c r="F25" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="I25" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95">
+      <c r="G25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.95">
       <c r="A26" s="43"/>
       <c r="B26" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C26" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>184</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>185</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>125</v>
@@ -4388,21 +4428,25 @@
         <v>125</v>
       </c>
       <c r="G26" s="41"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95">
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.95">
       <c r="A27" s="43"/>
       <c r="B27" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>186</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>187</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>125</v>
@@ -4411,21 +4455,25 @@
         <v>125</v>
       </c>
       <c r="G27" s="41"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95">
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.95">
       <c r="A28" s="43"/>
       <c r="B28" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C28" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>125</v>
@@ -4433,37 +4481,39 @@
       <c r="F28" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95">
+      <c r="G28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.95">
       <c r="A29" s="43"/>
       <c r="B29" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95">
+        <v>153</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.95">
       <c r="A30" s="43"/>
       <c r="B30" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>125</v>
@@ -4473,9 +4523,48 @@
       </c>
       <c r="G30" s="43"/>
     </row>
+    <row r="31" spans="1:16" ht="15.95">
+      <c r="A31" s="43"/>
+      <c r="B31" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="I32" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+    </row>
+    <row r="33" spans="9:12">
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I25:L27"/>
+    <mergeCell ref="I32:L34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
